--- a/UPDATE/U_KLTT/Template_KLTT_NT.xlsx
+++ b/UPDATE/U_KLTT/Template_KLTT_NT.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ly_ng\Desktop\FDC_B1\U_KLTT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SAP\FDC_B1\FDC_B1\UPDATE\U_KLTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -344,6 +344,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -388,24 +406,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -691,7 +691,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -709,62 +709,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="15"/>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="17"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31"/>
-      <c r="B3" s="32"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="19"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9" customFormat="1" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
-      <c r="C4" s="26" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="34"/>
     </row>
     <row r="5" spans="1:9" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
@@ -778,44 +778,44 @@
       </c>
     </row>
     <row r="6" spans="1:9" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="22" t="s">
+      <c r="G6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="28" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="23"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="15">
